--- a/planilhas/TABELA_CLIENTES_AUX.xlsx
+++ b/planilhas/TABELA_CLIENTES_AUX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-24120" yWindow="-1095" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
@@ -507,10 +507,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="V1:AG1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="24.95" customHeight="1"/>
@@ -536,8 +536,7 @@
     <col width="14.5703125" customWidth="1" min="21" max="21"/>
     <col width="9.140625" customWidth="1" style="8" min="22" max="22"/>
     <col width="14.28515625" customWidth="1" style="14" min="23" max="23"/>
-    <col width="9.140625" customWidth="1" style="14" min="24" max="26"/>
-    <col width="9.140625" customWidth="1" style="14" min="27" max="29"/>
+    <col width="9.140625" customWidth="1" style="14" min="24" max="29"/>
     <col width="9.140625" customWidth="1" style="8" min="30" max="31"/>
     <col width="9.85546875" customWidth="1" style="14" min="32" max="32"/>
     <col width="7.42578125" customWidth="1" style="8" min="33" max="33"/>
@@ -1249,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="AG7" s="8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1">
@@ -1386,6 +1385,309 @@
       </c>
       <c r="AG8" s="8" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="24.95" customHeight="1">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W9" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y9" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z9" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA9" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB9" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC9" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF9" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" t="n">
+        <v>75</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EULALIA LINDOZO LINS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>48918105304</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>271641520040</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39549603</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>R. 10 , 28 , A QD 10, ALTO TURU II</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>65090120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SÃO JOSÉ DE RIBAMAR</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>MONOFÁSICO</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>63</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>AÉREO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>AUTOCONSUMO REMOTO</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-2.512429</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-44.193604</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Leapton Mono 665</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>S6 GR1P5K</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="W10" t="n">
+        <v>220</v>
+      </c>
+      <c r="X10" t="n">
+        <v>665</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>monocristalino</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>LP210*210-M-66-MH</t>
+        </is>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/TABELA_CLIENTES_AUX.xlsx
+++ b/planilhas/TABELA_CLIENTES_AUX.xlsx
@@ -507,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1270,8 +1270,10 @@
           <t>33048942</t>
         </is>
       </c>
-      <c r="E8" s="6" t="n">
-        <v>1450298</v>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>1450298</t>
+        </is>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
@@ -1298,9 +1300,10 @@
           <t>RESIDENCIAL</t>
         </is>
       </c>
-      <c r="K8" s="6">
-        <f>J8</f>
-        <v/>
+      <c r="K8" s="6" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
@@ -1343,8 +1346,10 @@
           <t>GT1-3K-S</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>1</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="V8" s="8" t="n">
         <v>4.4</v>
@@ -1687,6 +1692,288 @@
         <v>10</v>
       </c>
       <c r="AG10" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>77</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MANOEL ALEXANDRE DINIZ PINHO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>87563428372</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>552300969</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43959212</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R. 2, 6 , VINHAIS,</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>65010000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SAO LUIS</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>MONOFÁSICO</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>63</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>AÉREO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-2.521229</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-44.2537</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Leapton Mono 665</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>13</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>HMS 2000</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="W11" t="n">
+        <v>220</v>
+      </c>
+      <c r="X11" t="n">
+        <v>665</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>monocristalino</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>LP210*210-M-66-MH</t>
+        </is>
+      </c>
+      <c r="AD11" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>78</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SILVANA DE FATIMA RABELO COSTA DE FIGUEREDO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>84519460387</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>355885320084</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3009181716</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>R. COLINAS , 13 , A QD 11, RES V, TURU</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>65066-641</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SAO LUIS</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>MONOFÁSICO</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>63</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>AÉREO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-2.500671</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-44.218524</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Leapton Mono 665</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>6</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>S6 GR1P5K</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="W12" t="n">
+        <v>220</v>
+      </c>
+      <c r="X12" t="n">
+        <v>665</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>monocristalino</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>LP210*210-M-66-MH</t>
+        </is>
+      </c>
+      <c r="AD12" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
         <v>32</v>
       </c>
     </row>

--- a/planilhas/TABELA_CLIENTES_AUX.xlsx
+++ b/planilhas/TABELA_CLIENTES_AUX.xlsx
@@ -507,10 +507,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="24.95" customHeight="1"/>
@@ -708,6 +708,11 @@
           <t>DISJUNTOR INVERSOR</t>
         </is>
       </c>
+      <c r="AH1" s="13" t="inlineStr">
+        <is>
+          <t>RAIZ</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1393,165 +1398,147 @@
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="A9" s="9" t="n">
+        <v>73</v>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SERGIO MURILO DE PAULA BARROS MUNIZ</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40872173372</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>618505</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3016578621</t>
         </is>
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R. JAU, 12, OLHO DAGUA</t>
         </is>
       </c>
       <c r="G9" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>65065200</t>
         </is>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SÃO LUÍS</t>
         </is>
       </c>
       <c r="I9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="J9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RESIDENCIAL</t>
         </is>
       </c>
       <c r="K9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RESIDENCIAL</t>
         </is>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M9" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>TRIFÁSICO</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>63</v>
       </c>
       <c r="N9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AÉREO</t>
         </is>
       </c>
       <c r="O9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>INDIVIDUAL</t>
         </is>
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-2.486103</t>
         </is>
       </c>
       <c r="Q9" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-44.224335</t>
         </is>
       </c>
       <c r="R9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S9" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Belenergy 460 Poli</t>
+        </is>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>42</v>
       </c>
       <c r="T9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3P15K-4G</t>
         </is>
       </c>
       <c r="U9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W9" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X9" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y9" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z9" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA9" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="V9" s="8" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="W9" s="14" t="n">
+        <v>380</v>
+      </c>
+      <c r="X9" s="14" t="n">
+        <v>460</v>
+      </c>
+      <c r="Y9" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="14" t="n">
+        <v>3</v>
       </c>
       <c r="AB9" s="14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>policristalino</t>
         </is>
       </c>
       <c r="AC9" s="14" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF9" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>MFVHO-PO-156-460W</t>
+        </is>
+      </c>
+      <c r="AD9" s="8" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="AE9" s="8" t="n">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="AF9" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG9" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1695,7 +1682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" t="n">
         <v>77</v>
       </c>
@@ -1836,7 +1823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" t="n">
         <v>78</v>
       </c>
@@ -1975,6 +1962,579 @@
       </c>
       <c r="AG12" t="n">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="n">
+        <v>74</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CAMILLE EMMANUELE SOUZA FERNANDES</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>94791783387</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1016399984</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3016925259</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>R. PRINCIPAL, 37, GRAN VILLAGE BOULEVARD I, ESTRADA NOVA, ARAÇAGY</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>65110000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SÃO JOSÉ DE RIBAMAR</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>MONOFÁSICO</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>63</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>AÉREO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-2.489532</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-44.182947</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Leapton Mono 665</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>S6 GR1P5K</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="W13" t="n">
+        <v>220</v>
+      </c>
+      <c r="X13" t="n">
+        <v>665</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>monocristalino</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>LP210*210-M-66-MH</t>
+        </is>
+      </c>
+      <c r="AD13" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>79</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IVAN DA SILVA COSTA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13213644315</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>332528</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>263540</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>QD A2 , 4 , QD A2, VL IVAR SALDANHA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>65010000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SAO LUIS</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>TRIFÁSICO</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>63</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>AÉREO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>-2.538922</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-44.265598</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Leapton Mono 665</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>S6 GR1P5K</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="W14" t="n">
+        <v>380</v>
+      </c>
+      <c r="X14" t="n">
+        <v>665</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>monocristalino</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>LP210*210-M-66-MH</t>
+        </is>
+      </c>
+      <c r="AD14" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>81</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MARIA ANGELICA DE ALBUQUERQUE PINHEIRO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14916576349</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>188093940</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2298872</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>AV. SARNEY FILHO, N 67, AV. SARNEY FILHO, N 67, VL JANAINA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>65058825</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SAO LUIS</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>MONOFÁSICO</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>63</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>AÉREO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>AUTOCONSUMO REMOTO</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-2.592571</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-44.193751</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Jinko 460 Mono</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>MIC 3000TL-X</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="W16" t="n">
+        <v>220</v>
+      </c>
+      <c r="X16" t="n">
+        <v>460</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>monocristalino</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JKM460M-60HL4-V </t>
+        </is>
+      </c>
+      <c r="AD16" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>83</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ANTONIA VIEIRA MARTIS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>65753640397</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>431571953</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3016124337</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>R. 24, S/N, SN, SÃO CAETANO</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>65800000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>BALSAS</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>MONOFÁSICO</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>63</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>AÉREO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>AUTOCONSUMO REMOTO</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-7.54159</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-46.05986</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Leapton Mono 665</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>ASW9100-S</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="W17" t="n">
+        <v>220</v>
+      </c>
+      <c r="X17" t="n">
+        <v>665</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>monocristalino</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>LP210*210-M-66-MH</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>63</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
